--- a/biology/Médecine/Sillon_temporal_inférieur/Sillon_temporal_inférieur.xlsx
+++ b/biology/Médecine/Sillon_temporal_inférieur/Sillon_temporal_inférieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sillon_temporal_inf%C3%A9rieur</t>
+          <t>Sillon_temporal_inférieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sillon temporal inférieur (ou deuxième sillon temporal t2) est un sillon de la face latérale du lobe temporal du cortex. 
 Peu profond, il se dirige d'avant en arrière, en dessous et parallèlement au sillon temporal supérieur.
